--- a/medicine/Psychotrope/Liste_des_marques_de_bières/Liste_des_marques_de_bières.xlsx
+++ b/medicine/Psychotrope/Liste_des_marques_de_bières/Liste_des_marques_de_bières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_marques_de_bi%C3%A8res</t>
+          <t>Liste_des_marques_de_bières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive de marques de bières classées par continents et par pays producteur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_marques_de_bi%C3%A8res</t>
+          <t>Liste_des_marques_de_bières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,26 +525,168 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Afrique du Sud
-Black Label
+          <t xml:space="preserve"> Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black Label
 Castle
 Hansa
- Algérie
-Tango
-Desperados
- Bénin
-La Béninoise
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Algérie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tango
+Desperados</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bénin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Béninoise
 Beaufort
 Castel Beer
 Flag
 Eku
 Guinness
-33' Export
- Burkina Faso
-Brakina
-Sobbra
- Cameroun
-Kadji Beer (bière blonde)
+33' Export</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burkina Faso</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brakina
+Sobbra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cameroun</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kadji Beer (bière blonde)
 Castel Beer
 Mutzig
 Beaufort et Beaufort light
@@ -541,11 +695,79 @@
 Satzenbrau
 King beer
 Isenberg
-Beaufort Tango
- Cap-Vert
-Strela
- République du Congo
-La république du Congo possède deux Brasseries et commercialisent les bières suivantes :
+Beaufort Tango</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cap-Vert</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Strela</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> République du Congo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La république du Congo possède deux Brasseries et commercialisent les bières suivantes :
 Brasseries du Congo (BRASCO)
 Ngok, bière blonde
 Turbo King, rousse
@@ -567,9 +789,43 @@
 Booster Cider
 Doppel Münich
 Castel Beer
-Beaufort lager
- République démocratique du Congo
-Simba
+Beaufort lager</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> République démocratique du Congo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Simba
 Skol
 Tembo
 Primus
@@ -581,9 +837,43 @@
 33 Export
 Doppel Munich
 Guiness
-Ngok
- Côte d'Ivoire
-SOLIBRA :
+Ngok</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SOLIBRA :
 Bock Solibra
 Solibra Export
 Skol
@@ -595,18 +885,154 @@
 Desperados
 Ivoire classic
 Ivoire spéciale
-Ivoire Black
- Égypte
-Stella, bière blonde
-Sakara, bière blonde
- Gabon
-Régab
- Mali
-Castel
+Ivoire Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Égypte</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Stella, bière blonde
+Sakara, bière blonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gabon</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Régab</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mali</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Castel
 Flag
-Beaufort
- Madagascar
-Three Horses Beer
+Beaufort</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Madagascar</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Three Horses Beer
 Manica
 Cerveja 2M
 Laurentina Clara
@@ -614,44 +1040,350 @@
 Stella
 Marocan beer
 Laurentina Preta
-Castle Milk Stout
- Maroc
-Flag spéciale
+Castle Milk Stout</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maroc</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Flag spéciale
 Flag Pils
 Stork
 Casablanca
 Casablanca light
-Kania
- Namibie
-Windhoek
-Tafel
- Niger
-Bière Niger
- Sénégal
-Le Sénégal possède une seule société brassicole, la Soboa, qui commercialise les bières suivantes ;
+Kania</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Namibie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Windhoek
+Tafel</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Niger</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bière Niger</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sénégal</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Le Sénégal possède une seule société brassicole, la Soboa, qui commercialise les bières suivantes ;
 Flag
 Gazelle
 Doppel Munich
 33 Export
 Booster Racines (alcool-mix)
-Beaufort
- Seychelles
-Seybrew
- Tanzanie
-kilimandjaro Beer
-Safari Beer
- Tchad
-Gala
-Chari
- Togo
-Awoyo
+Beaufort</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Seychelles</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Seybrew</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tanzanie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>kilimandjaro Beer
+Safari Beer</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tchad</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Gala
+Chari</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Togo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Awoyo
 Pils
 Éku
 Lager
 Flag
-Beaufort
- Tunisie
-Celtia
+Beaufort</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tunisie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Celtia
 Golden Brau
 Heineken
 Beck's
@@ -664,51 +1396,193 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_marques_de_bi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Amérique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Argentine
-Andes
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Argentine</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Andes
 Bieckert
 Cordoba
 Norte
 Quilmes
-Palermo
- Aruba
-Aruba Brewing
+Palermo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aruba</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Aruba Brewing
 Aruba Red Star
 Brouwerij Nacional Balashi
-Cerbeseria Arubano
- Bahamas
-Kalik
- Bolivie
-Huari
+Cerbeseria Arubano</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bahamas</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Kalik</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bolivie</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Huari
 Potosina
-Paceña
- Brésil
+Paceña</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brésil</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Antarctica
 Brahma
 Kaiser
@@ -746,7 +1620,43 @@
 Skol Pilsen
 Skol Beats
 Microbrasserie Le Castor
- Canada
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alexander Keith's
 À l'abri de la Tempête
 Alpine Lager
@@ -800,30 +1710,235 @@
 Victoria Lager
 Wolf Scottish Cream Ale
 Pit Caribou
-Caraïbes
-Vita Malt
- Chili
-Austral
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Caraïbes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Vita Malt</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chili</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Austral
 Bio Beer
 Cristal
 Escudo
 Kross
 Kunstmann
-Royal Guard
- Costa Rica
-Imperial (bière)
+Royal Guard</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Costa Rica</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Imperial (bière)
 Pilsen
 Bavaria
 Rock Ice
-Kaiser
- Cuba
-Bucanero
-Cristal
- Équateur
-Club
-Pilsener
- États-Unis
-Anchor Steam
+Kaiser</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cuba</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Bucanero
+Cristal</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Équateur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Club
+Pilsener</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Anchor Steam
 Budweiser
 Bud Light
 Coors
@@ -832,14 +1947,151 @@
 Samuel Adams
 Sierra Nevada
 Kona Brewing Company (Hawaï)
-Rolling rock
- Guatemala
-Gallo
- Haïti
-Prestige
- Jamaïque
-Red Stripe
- Mexique
+Rolling rock</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guatemala</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Haïti</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Prestige</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jamaïque</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Red Stripe</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mexique</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bohemia
 Carta Blanca
 Casta
@@ -862,51 +2114,159 @@
 Tempus
 Beer Factory
 Minerva
- Pérou
-Arequipeña
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pérou</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Arequipeña
 Cristal
 Pilsen Callao
 Cusqueña
 Iquiteña
-San Juan (bière)
- Uruguay
-Pilsen
+San Juan (bière)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Uruguay</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Pilsen
 Patricia
-Zillertal
- Venezuela
-Polar (Polar Ice)
+Zillertal</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Venezuela</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Polar (Polar Ice)
 Regional Light</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_marques_de_bi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Asie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cambodge
-Angkor Beer / Angkor Extra Stout
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cambodge</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Angkor Beer / Angkor Extra Stout
 Cambodia Beer
 Bayon Beer
 Klang Beer
@@ -914,8 +2274,43 @@
 Himawari (bière de Phnom Penh)
 Clouded Leopard Pilsner
 Kouprey Dark Lager
-Kingdom Gold Lager
- Chine et  Taïwan
+Kingdom Gold Lager</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chine et  Taïwan</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Blue Girl (Hong Kong)
 Haizhou (Zhuhai, Guangdong)
 Harbin (Harbin, Heilongjiang)
@@ -934,25 +2329,231 @@
 Xinghuacun (bière du Shandong)
 Yanjing (ancien nom de Pékin et bière de Pékin)
 Yantai (Yantai, Shandong)
- Corée du Nord
-Taedonggang
- Corée du Sud
-Hite
-OB et Cass
- Inde
-Bengal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Corée du Nord</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Taedonggang</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Corée du Sud</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Hite
+OB et Cass</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inde</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Bengal
 Cobra
 Kingfisher
 Lal Toofan
 Maharaja
-Taj Mahal
- Israël
-Maccabi (bière)
-Goldstar (bière)
- Indonésie
-Bali Hai
-Bintang
- Japon
+Taj Mahal</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Israël</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Maccabi (bière)
+Goldstar (bière)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indonésie</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Bali Hai
+Bintang</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japon</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asahi Super Dry
 Enoshima
 Ginga Kōgen
@@ -974,45 +2575,386 @@
 Suwa Roman
 Yebisu
 Yebisu Black
- Laos
-Beerlao
-Lao Bia
- Liban
-Almaza
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laos</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Beerlao
+Lao Bia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Liban</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Almaza
 Laziza
 961 Beer
-Lebanese Brew
- Malaisie
-Tiger Beer
- Maurice
-stags
+Lebanese Brew</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malaisie</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Tiger Beer</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maurice</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>stags
 Blue Marlin
 Kings
-Phoenix
- Mongolie
-Kharkhorin
+Phoenix</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mongolie</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Kharkhorin
 Chinggis
 Altaï
 Altan Gov
-Yah-Uu
- Philippines
-San Miguel
- Singapour
-Tiger Beer
- Thaïlande
-Chang
+Yah-Uu</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Philippines</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Singapour</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Tiger Beer</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thaïlande</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Chang
 Leo
 Singha
-Archa
- Turquie
-Efes
+Archa</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Turquie</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Efes
 Türk Tuborg
 Marmara34
 Pera pilsener
 Xtra
-Miler
- Viêt Nam
-Saigon Beer
+Miler</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Viêt Nam</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Saigon Beer
 Saigon Special
 Hanoi Beer
 333 (bière)
@@ -1023,33 +2965,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_marques_de_bi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Allemagne
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Andechser, d'Andechs, Bavière
 Astra, de Hambourg
 Augustiner Bräu, de Munich
@@ -1108,8 +3056,43 @@
 Weihenstephan
 Wernesgrüner
 Würzburger Hofbräu, de Wurtzbourg, Bavière
- Autriche
-7 Stern Bräu
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Autriche</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>7 Stern Bräu
 Edelweiss
 Egger
 Engelszell, Haute-Autriche
@@ -1123,12 +3106,80 @@
 Schloss Eggenberg Urbock
 Schwechater, Schwechat
 Stiegl, Salzbourg
-Zipfer
- Belgique
- Bosnie-Herzégovine
-Sarajevska Pivo
-Nektar
- Bulgarie
+Zipfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bosnie-Herzégovine</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Sarajevska Pivo
+Nektar</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bulgarie</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bolyarka
 Choumensko
 Choumensko Specialno
@@ -1144,15 +3195,84 @@
 Stolichno
 MM
 Plevensko
- Croatie
-Karlovačko
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Croatie</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Karlovačko
 Ožujsko
 Tomislav
-Kaltenberg | [1]
+Kaltenberg | 
 Velebitsko
-Pan
- Danemark
-Carlsberg
+Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Danemark</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Carlsberg
 Ceres
 Evil Twin Brewing
 Giraf Strong
@@ -1164,12 +3284,84 @@
 Thor
 To Øl
 Tuborg
-Faxe
- Îles Féroé
-Föroya Bjór
-Restorffs
- Espagne
-Alhambra (Grenade)
+Faxe</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Danemark</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Îles Féroé</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Föroya Bjór
+Restorffs</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Espagne</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Alhambra (Grenade)
 Ambar (Zaragoza)
 Calvinus
 Cruzcampo (Séville)
@@ -1187,15 +3379,83 @@
 Tropical (Canaries)
 Victoria (Malaga)
 Voll-Damm
-Xibeca
- Estonie
-A. Le Coq
+Xibeca</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Estonie</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>A. Le Coq
 Saku Originaal
 Saku Hard Rock
 Saku Tume
-Saku Presidenti
- Finlande
-Amiraali
+Saku Presidenti</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Finlande</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Amiraali
 Aura
 Karhu
 Karjala
@@ -1204,10 +3464,43 @@
 Lapin Kulta
 Olvi
 Olvi CXX
-Sandels
- France
- Grèce
-Alexander the Great (Argos, Peloponnèse)
+Sandels</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grèce</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Alexander the Great (Argos, Peloponnèse)
 Ali (Thessalonique, Macédoine)
 Alpha (Athenian Brewery, d'intérêts hollandais)
 Argô (Volos)
@@ -1242,8 +3535,43 @@
 Volkan (île de Santorin)
 Voreia (Serres, Macédoine)
 Z (EZA, Atalanti)
-Zeos (Argos, Peloponnèse)
- Hongrie
+Zeos (Argos, Peloponnèse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hongrie</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 896
 Arany Hordó
 Arany Ászok
@@ -1277,8 +3605,43 @@
 Talléros
 Tavaszi Sör
 Weber Sör
- Irlande
-Beamish
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Irlande</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Beamish
 Caffrey's
 Crean's
 Galway Hooker
@@ -1289,9 +3652,43 @@
 Murphy's
 O'Hara
 Smithwick's
-Omak
- Islande
-Egils Gull
+Omak</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Islande</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Egils Gull
 Viking
 Thule
 Gæðingur
@@ -1304,9 +3701,43 @@
 Íslenskur Úrvals
 Kaldi
 Gullfoss
-Jökull
- Italie
-Birra Morena
+Jökull</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Birra Morena
 Birra Moretti
 Dreher
 Ichnusa
@@ -1319,9 +3750,43 @@
 Angelo Poretti (Lombardie)
 Efees
 it:Von Wunster
-Birra Forst
- Lettonie
-Brenguļu
+Birra Forst</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lettonie</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Brenguļu
 Aldaris
 Bauskas
 Brālis
@@ -1336,12 +3801,80 @@
 Rēzeknes
 Tērvete
 Užavas
-Valmiermuižas
- Liechtenstein
-Liechtensteiner Brauhaus
-Prinzenbräu AG
- Lituanie
-Švyturys
+Valmiermuižas</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Liechtenstein</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Liechtensteiner Brauhaus
+Prinzenbräu AG</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lituanie</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Švyturys
 Kalnapilis
 Utenos
 Tauras
@@ -1351,9 +3884,43 @@
 Rinkuškiai
 Prie katedros
 Maltosa
-Viking Malt
- Luxembourg
-Battin: Edelpils, Gambrinus,Fruité
+Viking Malt</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Luxembourg</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Battin: Edelpils, Gambrinus,Fruité
 Bofferding: Pils, Fréijoersbéier, Hausbéier
 Diekirch: Premium, Grand Cru, Grande Réserve, Brune, Exclusive, Surf
 Mousel: Pils, Altmunster
@@ -1362,15 +3929,151 @@
 Béierhaascht
 Ourdaller: Wëllen,Waissen
 Den Héischter
-Okult
-ARYM
-Skopsko (Скопско en cyrillique)
- Malte
-Cisk
- Monténégro
-Nikšićko
- Norvège
-Dahls
+Okult</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ARYM</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Skopsko (Скопско en cyrillique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malte</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Cisk</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Monténégro</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Nikšićko</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Norvège</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Dahls
 Ringnes
 Mack
 Hansa
@@ -1383,8 +4086,43 @@
 Grans
 Arendals
 Nøgne ø
-Knapp Nanobryggeri
- Pays-Bas
+Knapp Nanobryggeri</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Amstel
 Breda
 Dommelsch
@@ -1404,7 +4142,43 @@
 3Hoefyzers
 Swinkels
 Brouwerij 't IJ
- Pologne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pologne</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cracus
 Dębowe Mocne
 Dog In The Fog
@@ -1429,17 +4203,86 @@
 Wojak
 Żubr (ou bière du bison)
 Żywiec pils ou porter
- Portugal
-Cristal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portugal</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Cristal
 Sagres
 Superbock
 Imperial
 Bohemia
 Coral
 Cintra
-Tagus
- Roumanie
-7 coline
+Tagus</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Roumanie</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>7 coline
 Albacher
 Aurora
 Bergenbier
@@ -1454,9 +4297,47 @@
 Silva
 Timişoreana
 Trei Stejari
-Ursus
- Royaume-Uni
- Angleterre
+Ursus</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Angleterre</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bass Pale Ale
 Boddingtons
 Bulldog Strong Ale
@@ -1478,17 +4359,129 @@
 Theakstons Old Peculier
 Wells Bombardier
 Young's Oatmeal Stout
- Écosse
-Belhaven St. Andrews
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Écosse</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Belhaven St. Andrews
 Dark Island
 Deuchars
 Tennents
-BrewDog
- Pays de Galles
-Brains Bitter
+BrewDog</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pays de Galles</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Brains Bitter
 Brains Dark
-Brains SA
- Russie
+Brains SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Russie</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Baltika
 Sibirskaya Corona
 Stepan Razin
@@ -1496,33 +4489,204 @@
 Tinkoff
 Yarpivo
 Zolotaya Botchka
- Serbie
-Jelen Pivo
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Serbie</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Jelen Pivo
 Lav
-Weifert
- Slovaquie
-Kelt
+Weifert</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Slovaquie</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Kelt
 Šariš
 Smädny Mnich
-Zlatý Bažant
- Slovénie
-Pelicon
+Zlatý Bažant</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Slovénie</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Pelicon
 Reservoir Dogs Brewery
 Laško (bière)
-Union (bière)
- Suède
-Borg Viking
+Union (bière)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suède</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Borg Viking
 Crocodile
 Falcon
-Ikea (Öl Ljus Lager[3] et Öl Mörk Lager[4].)
+Ikea (Öl Ljus Lager et Öl Mörk Lager.)
 Nils Oscar
-Nya Carnegie Bryggeriet[5]
+Nya Carnegie Bryggeriet
 Pripps Blå
 Sofiero
 Spendrups
-Three Hearts
- Suisse
-Selon l'Association suisse des brasseries (ASB), la Suisse comptait 833 brasseries artisanales en 2017[6].
+Three Hearts</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suisse</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'Association suisse des brasseries (ASB), la Suisse comptait 833 brasseries artisanales en 2017.
 Aare Bier
 Adler
 Appenzeller Bier (Appenzell, AI)
@@ -1572,7 +4736,43 @@
 Wädi-Brau
 Warteck (Rheinfelden, AG)
 Weizentrumpf
- République tchèque
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> République tchèque</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ambrosius
 Arthur
 Avar
@@ -1701,33 +4901,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_marques_de_bi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>Océanie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Australie
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Boag's Draught
 Barons
 Carlton Draught
@@ -1749,25 +4955,230 @@
 Tooheys Extra Dry
 Victoria Bitter
 XXXX
- Fidji
-Carlton Brewery (Fiji bitter)
-Vonu
- Nouvelle-Calédonie
-Number One
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fidji</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Carlton Brewery (Fiji bitter)
+Vonu</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nouvelle-Calédonie</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Number One
 Manta
-Havannah
- Nouvelle-Zélande
-Speight's
+Havannah</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Speight's
 Steinlager
 Niue
 M.K. Viviani
-Tui
- Palaos
-Red Rooster
- Tahiti
-Hinano
- Vanuatu
-Tusker</t>
+Tui</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Palaos</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Red Rooster</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tahiti</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Hinano</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Liste_des_marques_de_bières</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_marques_de_bi%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vanuatu</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Tusker</t>
         </is>
       </c>
     </row>
